--- a/data/trans_orig/RUIDO_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>30489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18231</v>
+        <v>19373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54405</v>
+        <v>51885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1094345968250012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06543605041235658</v>
+        <v>0.06953702423063468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1952760210457535</v>
+        <v>0.1862299340763449</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -762,19 +762,19 @@
         <v>42238</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33107</v>
+        <v>32976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55065</v>
+        <v>53083</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1456018996731769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1141269402746612</v>
+        <v>0.1136753024163446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1898193329663369</v>
+        <v>0.1829859859067021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -783,19 +783,19 @@
         <v>72727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57489</v>
+        <v>57837</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98536</v>
+        <v>95488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1278835264147381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.101089098070336</v>
+        <v>0.1017014157560028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1732653762966883</v>
+        <v>0.167905673671831</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>81143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67619</v>
+        <v>65836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97942</v>
+        <v>97648</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2912452637779605</v>
+        <v>0.2912452637779606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2427046564418505</v>
+        <v>0.2363035423351278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3515413016622694</v>
+        <v>0.3504890517109827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -833,19 +833,19 @@
         <v>90737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78090</v>
+        <v>78284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103471</v>
+        <v>103677</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3127873154939824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2691898067141384</v>
+        <v>0.2698580400745438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3566834277449165</v>
+        <v>0.3573921474897552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>270</v>
@@ -854,19 +854,19 @@
         <v>171880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151943</v>
+        <v>152001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192314</v>
+        <v>192936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3022338574531842</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.267176548103104</v>
+        <v>0.2672776185979159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3381646196468645</v>
+        <v>0.3392591206415052</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>83297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68823</v>
+        <v>67502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99966</v>
+        <v>99716</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2989780381344804</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2470264575622454</v>
+        <v>0.2422858000968812</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3588081734178616</v>
+        <v>0.3579116931530447</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>156</v>
@@ -904,19 +904,19 @@
         <v>84541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72308</v>
+        <v>72569</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96843</v>
+        <v>96459</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2914255847422886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2492586665665009</v>
+        <v>0.2501571809396063</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3338355362956618</v>
+        <v>0.3325114975009956</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>250</v>
@@ -925,19 +925,19 @@
         <v>167838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>149205</v>
+        <v>148777</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>189998</v>
+        <v>188700</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2951255340799973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2623613816836338</v>
+        <v>0.2616100297493022</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3340920821420162</v>
+        <v>0.3318108141898151</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>35804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25708</v>
+        <v>25570</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48514</v>
+        <v>47566</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1285109635982155</v>
+        <v>0.1285109635982156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09227527306826074</v>
+        <v>0.0917779035910494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1741310307472307</v>
+        <v>0.1707268047587083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -975,19 +975,19 @@
         <v>28612</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21297</v>
+        <v>21119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37742</v>
+        <v>37646</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09863128925834397</v>
+        <v>0.09863128925834398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07341322619097454</v>
+        <v>0.07279924704011421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1301024688911598</v>
+        <v>0.1297728283278961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -996,19 +996,19 @@
         <v>64416</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51943</v>
+        <v>51209</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79964</v>
+        <v>79421</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1132693512951194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09133580283458345</v>
+        <v>0.09004503720645977</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1406091001994525</v>
+        <v>0.139654563121359</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>47873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36619</v>
+        <v>35964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61221</v>
+        <v>60345</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1718311376643422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1314381003683968</v>
+        <v>0.1290870343150354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2197397537824885</v>
+        <v>0.2165973205082986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -1046,19 +1046,19 @@
         <v>43965</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35080</v>
+        <v>35197</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56645</v>
+        <v>54893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.151553910832208</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1209274263797314</v>
+        <v>0.1213287637476658</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1952656249754739</v>
+        <v>0.1892256055439497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -1067,19 +1067,19 @@
         <v>91838</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76205</v>
+        <v>78293</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>108634</v>
+        <v>109710</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.161487730756961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1339979791900929</v>
+        <v>0.1376700602056884</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1910216898259944</v>
+        <v>0.1929134769139591</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>32071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19820</v>
+        <v>20022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52005</v>
+        <v>49525</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08081082908437638</v>
+        <v>0.0808108290843764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04994073890379817</v>
+        <v>0.05045058424513187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1310397711510853</v>
+        <v>0.1247899937472313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1192,19 +1192,19 @@
         <v>41302</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30581</v>
+        <v>31638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56983</v>
+        <v>58975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.100112417353932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07412626391094825</v>
+        <v>0.07668924541370925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1381232063789732</v>
+        <v>0.1429507753458245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1213,19 +1213,19 @@
         <v>73373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55598</v>
+        <v>56259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95401</v>
+        <v>97244</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09064862821336792</v>
+        <v>0.09064862821336794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06868817376654922</v>
+        <v>0.06950545104315424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1178633170253996</v>
+        <v>0.1201403851290384</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>89208</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73003</v>
+        <v>72974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108724</v>
+        <v>109370</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2247800531915249</v>
+        <v>0.224780053191525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1839472551618331</v>
+        <v>0.1838741106139362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2739558078018418</v>
+        <v>0.2755838101812151</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>179</v>
@@ -1263,19 +1263,19 @@
         <v>119977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106255</v>
+        <v>104949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140857</v>
+        <v>137283</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2908175430479765</v>
+        <v>0.2908175430479766</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2575554029191954</v>
+        <v>0.2543904776124399</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3414274970227182</v>
+        <v>0.332766529310116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>262</v>
@@ -1284,19 +1284,19 @@
         <v>209185</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>185975</v>
+        <v>185959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>235695</v>
+        <v>234785</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2584386076647494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2297629546062113</v>
+        <v>0.2297440861394241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2911905316264425</v>
+        <v>0.2900662822722662</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>173006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>152456</v>
+        <v>153263</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194168</v>
+        <v>195309</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4359275830898216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3841468832218153</v>
+        <v>0.3861818888192587</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4892508979665816</v>
+        <v>0.4921264122427834</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>197</v>
@@ -1334,19 +1334,19 @@
         <v>135519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>119786</v>
+        <v>118600</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>152896</v>
+        <v>151142</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3284892372631357</v>
+        <v>0.3284892372631358</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2903532308793431</v>
+        <v>0.2874801076671741</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3706100488806003</v>
+        <v>0.3663586167534394</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>368</v>
@@ -1355,19 +1355,19 @@
         <v>308525</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>282328</v>
+        <v>281433</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>336272</v>
+        <v>334536</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3811674851003104</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3488028525127812</v>
+        <v>0.3476975482761515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4154476543517305</v>
+        <v>0.4133037248241098</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>61008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48088</v>
+        <v>48417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75932</v>
+        <v>75983</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1537227052960647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1211696665003044</v>
+        <v>0.1219980534158482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1913284111580785</v>
+        <v>0.1914577224394984</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -1405,19 +1405,19 @@
         <v>69211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56314</v>
+        <v>54776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83831</v>
+        <v>82878</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.167762318350578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1365023279325731</v>
+        <v>0.1327724101289028</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2032020397672018</v>
+        <v>0.2008921566097628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -1426,19 +1426,19 @@
         <v>130218</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110846</v>
+        <v>110945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151274</v>
+        <v>151868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1608785357463973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1369449606085248</v>
+        <v>0.1370668798467312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1868912745002217</v>
+        <v>0.187625663561253</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>41575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29885</v>
+        <v>30258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55449</v>
+        <v>56552</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1047588293382125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07530285632024118</v>
+        <v>0.07624287936639285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1397175888592543</v>
+        <v>0.1424969334205477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -1476,19 +1476,19 @@
         <v>46543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36330</v>
+        <v>36247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58479</v>
+        <v>58583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1128184839843777</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08806154089428084</v>
+        <v>0.0878592309591604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1417495356046493</v>
+        <v>0.1420010169747196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -1497,19 +1497,19 @@
         <v>88119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72390</v>
+        <v>72608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107692</v>
+        <v>105760</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1088667432751749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08943484278001328</v>
+        <v>0.08970417710884528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1330484722781414</v>
+        <v>0.1306616011481235</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>27954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16527</v>
+        <v>16836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45720</v>
+        <v>43981</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1028205092584127</v>
+        <v>0.1028205092584128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06078786290256166</v>
+        <v>0.0619239512599527</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1681643943660693</v>
+        <v>0.1617707156363957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1622,19 +1622,19 @@
         <v>26826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19371</v>
+        <v>18882</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37187</v>
+        <v>36433</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1009365004078757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07288368078769962</v>
+        <v>0.07104706390907994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1399206770811895</v>
+        <v>0.13708291998017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1643,19 +1643,19 @@
         <v>54780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40314</v>
+        <v>41383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73161</v>
+        <v>73278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1018891952204158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07498306164154447</v>
+        <v>0.07697142254987521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1360768928486066</v>
+        <v>0.1362934342346513</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>72451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56116</v>
+        <v>56552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90653</v>
+        <v>91723</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2664887195960675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2064034705671988</v>
+        <v>0.2080076231938632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3334368002504074</v>
+        <v>0.3373723554349545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -1693,19 +1693,19 @@
         <v>100370</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86172</v>
+        <v>84882</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116672</v>
+        <v>115916</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3776542130686053</v>
+        <v>0.3776542130686054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3242333010632263</v>
+        <v>0.3193783433903564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4389916190633317</v>
+        <v>0.4361463055286081</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -1714,19 +1714,19 @@
         <v>172822</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>151094</v>
+        <v>150444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>195849</v>
+        <v>196736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3214406825777294</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.28102905974809</v>
+        <v>0.2798200361502323</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3642706748903269</v>
+        <v>0.3659201114726536</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>116840</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98225</v>
+        <v>98955</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135322</v>
+        <v>133586</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4297585908127564</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3612868727522915</v>
+        <v>0.3639743000996409</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4977396264416176</v>
+        <v>0.4913526459403479</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>116</v>
@@ -1764,19 +1764,19 @@
         <v>84351</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71001</v>
+        <v>71345</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97478</v>
+        <v>98447</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3173812017826975</v>
+        <v>0.3173812017826976</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2671472932764621</v>
+        <v>0.2684444624373705</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3667719073489102</v>
+        <v>0.3704189295174547</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>222</v>
@@ -1785,19 +1785,19 @@
         <v>201192</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>180253</v>
+        <v>177933</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>225574</v>
+        <v>223626</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.374207556682897</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3352633060687406</v>
+        <v>0.3309476750677905</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4195585535957984</v>
+        <v>0.4159354749815072</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>29966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20078</v>
+        <v>20481</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42410</v>
+        <v>43811</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1102213612991511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07384866749285199</v>
+        <v>0.07533406819974067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.155991957180961</v>
+        <v>0.1611452317571857</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1835,19 +1835,19 @@
         <v>31500</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23163</v>
+        <v>22875</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40867</v>
+        <v>42390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1185213458113937</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08715284188033215</v>
+        <v>0.0860700189569621</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1537669681421839</v>
+        <v>0.1594968551659741</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -1856,19 +1856,19 @@
         <v>61466</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48807</v>
+        <v>48796</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77502</v>
+        <v>76968</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1143242571476529</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0907792447409575</v>
+        <v>0.0907590438467985</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1441501057751571</v>
+        <v>0.1431577645407636</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>24662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16008</v>
+        <v>16229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38824</v>
+        <v>38860</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09071081903361222</v>
+        <v>0.09071081903361221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05888182691717295</v>
+        <v>0.05969313811994993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1428008908992719</v>
+        <v>0.1429331745306823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1906,19 +1906,19 @@
         <v>22725</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15331</v>
+        <v>15878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30166</v>
+        <v>31092</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08550673892942763</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05768401861437054</v>
+        <v>0.05974321077840365</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1135010596571175</v>
+        <v>0.1169877361663242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -1927,19 +1927,19 @@
         <v>47387</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36282</v>
+        <v>35932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63160</v>
+        <v>61805</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08813830837130494</v>
+        <v>0.08813830837130493</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0674821331728971</v>
+        <v>0.06683174121902155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1174752726513177</v>
+        <v>0.1149547353515505</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>37701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25120</v>
+        <v>25070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55213</v>
+        <v>56657</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09200922659580545</v>
+        <v>0.09200922659580546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0613058650878748</v>
+        <v>0.06118439157760554</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1347487299120871</v>
+        <v>0.1382730441113534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2052,19 +2052,19 @@
         <v>26154</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17726</v>
+        <v>17739</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39026</v>
+        <v>39044</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05513396307709367</v>
+        <v>0.05513396307709366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03736813746237652</v>
+        <v>0.03739430670871914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08226838566689547</v>
+        <v>0.08230723734398127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -2073,19 +2073,19 @@
         <v>63855</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48007</v>
+        <v>48641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84915</v>
+        <v>87152</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07222397951886127</v>
+        <v>0.07222397951886128</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05429853259931942</v>
+        <v>0.05501596840298684</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09604461443216993</v>
+        <v>0.09857429227402706</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>90346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72547</v>
+        <v>73386</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108009</v>
+        <v>109081</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.220490736075538</v>
+        <v>0.2204907360755379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.177052896379436</v>
+        <v>0.1790997429592938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2635968226325207</v>
+        <v>0.2662143949578617</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>191</v>
@@ -2123,19 +2123,19 @@
         <v>132757</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>116735</v>
+        <v>116078</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>152007</v>
+        <v>152256</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2798583585660539</v>
+        <v>0.2798583585660538</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.24608419900418</v>
+        <v>0.2446980264307506</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3204399615299375</v>
+        <v>0.320962957722819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>283</v>
@@ -2144,19 +2144,19 @@
         <v>223103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>201249</v>
+        <v>197134</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>252626</v>
+        <v>248222</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2523441512721391</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2276262944007036</v>
+        <v>0.2229716232928495</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2857362024333074</v>
+        <v>0.2807549105780875</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>144779</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>124362</v>
+        <v>125930</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>164990</v>
+        <v>164806</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3533357567077174</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.303507577624636</v>
+        <v>0.3073339797645342</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4026600234682819</v>
+        <v>0.4022117559337823</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>238</v>
@@ -2194,19 +2194,19 @@
         <v>160550</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>142723</v>
+        <v>141300</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>180239</v>
+        <v>178860</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3384473312887973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3008688429921707</v>
+        <v>0.2978691653917759</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.379953519385235</v>
+        <v>0.3770470218947231</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>393</v>
@@ -2215,19 +2215,19 @@
         <v>305329</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>279078</v>
+        <v>279309</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>331493</v>
+        <v>332469</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.345347442933349</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3156560455850398</v>
+        <v>0.3159163715576381</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.374940654334459</v>
+        <v>0.3760438675492108</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>76566</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60927</v>
+        <v>60156</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94055</v>
+        <v>94452</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1868608394711633</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1486930581756667</v>
+        <v>0.1468118098632411</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2295430325219899</v>
+        <v>0.2305102413294909</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -2265,19 +2265,19 @@
         <v>61744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48428</v>
+        <v>50464</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73989</v>
+        <v>77573</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1301601642612751</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.10208991295743</v>
+        <v>0.1063812869396012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1559735867743582</v>
+        <v>0.163527220429526</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>156</v>
@@ -2286,19 +2286,19 @@
         <v>138311</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115613</v>
+        <v>117571</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161627</v>
+        <v>162089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1564383621405825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1307663735067899</v>
+        <v>0.1329809340231954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1828105374314591</v>
+        <v>0.1833331357217002</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>60358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46125</v>
+        <v>47565</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76707</v>
+        <v>77664</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.147303441149776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.112568661445748</v>
+        <v>0.1160831190245095</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1872035265508712</v>
+        <v>0.1895392653197292</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>134</v>
@@ -2336,19 +2336,19 @@
         <v>93167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77808</v>
+        <v>79051</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109555</v>
+        <v>110665</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1964001828067801</v>
+        <v>0.19640018280678</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1640239744362641</v>
+        <v>0.1666436473663381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2309488892751363</v>
+        <v>0.2332886343808406</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>201</v>
@@ -2357,19 +2357,19 @@
         <v>153524</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>131520</v>
+        <v>132651</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>177858</v>
+        <v>178658</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1736460641350681</v>
+        <v>0.1736460641350682</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1487580773059182</v>
+        <v>0.1500373715864469</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.201169053995566</v>
+        <v>0.2020743272175798</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>128215</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>98867</v>
+        <v>102828</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157017</v>
+        <v>160363</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09447760662819985</v>
+        <v>0.09447760662819986</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07285136452717583</v>
+        <v>0.07577021886415025</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1157002239344423</v>
+        <v>0.1181660660032204</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>186</v>
@@ -2482,19 +2482,19 @@
         <v>136520</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>116416</v>
+        <v>117572</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>157346</v>
+        <v>159400</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.09462216219111727</v>
+        <v>0.09462216219111726</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08068802844526564</v>
+        <v>0.08148923937609683</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.109056726427632</v>
+        <v>0.1104803075966566</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>279</v>
@@ -2503,19 +2503,19 @@
         <v>264735</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>229728</v>
+        <v>230673</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>298542</v>
+        <v>302529</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09455209648156485</v>
+        <v>0.09455209648156487</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08204905933877461</v>
+        <v>0.08238664030540463</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1066265041724944</v>
+        <v>0.1080505524775268</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>333148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>301480</v>
+        <v>301969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>369082</v>
+        <v>369351</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2454856690581959</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2221506117984195</v>
+        <v>0.2225105346844462</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.271963920274288</v>
+        <v>0.2721621366900221</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>674</v>
@@ -2553,19 +2553,19 @@
         <v>443842</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>413087</v>
+        <v>410207</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>475232</v>
+        <v>474534</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3076276115727188</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.286311004411802</v>
+        <v>0.2843151876714421</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3293837159809631</v>
+        <v>0.3289003596664291</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1002</v>
@@ -2574,19 +2574,19 @@
         <v>776990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>732399</v>
+        <v>736279</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>826302</v>
+        <v>827097</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.277507571863614</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2615815436525645</v>
+        <v>0.262967419568767</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2951197682615799</v>
+        <v>0.2954035669450171</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>517923</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>480299</v>
+        <v>477432</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>558895</v>
+        <v>554436</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3816395871538545</v>
+        <v>0.3816395871538546</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3539160631795744</v>
+        <v>0.3518036204984026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4118303226470926</v>
+        <v>0.408544939036179</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>707</v>
@@ -2624,19 +2624,19 @@
         <v>464961</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>436643</v>
+        <v>432128</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>496650</v>
+        <v>494365</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3222649810857255</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3026380636609912</v>
+        <v>0.2995083650054371</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3442288986921875</v>
+        <v>0.3426449701616258</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1233</v>
@@ -2645,19 +2645,19 @@
         <v>982883</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>929743</v>
+        <v>933460</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1027269</v>
+        <v>1029521</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3510436999367906</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3320645082194433</v>
+        <v>0.3333917390557175</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3668965584934238</v>
+        <v>0.3677008390387229</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>203344</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>174372</v>
+        <v>176567</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>231209</v>
+        <v>233893</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1498374495422164</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1284888362876428</v>
+        <v>0.1301058599102834</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.17036998033085</v>
+        <v>0.1723474462041725</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>263</v>
@@ -2695,19 +2695,19 @@
         <v>191067</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>169114</v>
+        <v>171090</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>214519</v>
+        <v>218673</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.132428866028688</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1172131500697053</v>
+        <v>0.1185828645997329</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1486834240237433</v>
+        <v>0.1515626517309073</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>464</v>
@@ -2716,19 +2716,19 @@
         <v>394411</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>358780</v>
+        <v>356078</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>429573</v>
+        <v>432551</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1408667616832083</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1281408941786149</v>
+        <v>0.1271757037392293</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1534251269462494</v>
+        <v>0.1544887977327504</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>174468</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>151178</v>
+        <v>151275</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>204189</v>
+        <v>199203</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1285596876175332</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1113980304615795</v>
+        <v>0.1114695642314339</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1504599463857089</v>
+        <v>0.1467859002611431</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>299</v>
@@ -2766,19 +2766,19 @@
         <v>206400</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>185702</v>
+        <v>181574</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>231216</v>
+        <v>230423</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1430563791217505</v>
+        <v>0.1430563791217504</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1287103592515719</v>
+        <v>0.1258492315218938</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1602559240711634</v>
+        <v>0.1597066275317468</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>487</v>
@@ -2787,19 +2787,19 @@
         <v>380868</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>348404</v>
+        <v>349767</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>413474</v>
+        <v>419465</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1360298700348222</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1244351089699723</v>
+        <v>0.124921635312282</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1476752587644014</v>
+        <v>0.1498147783395706</v>
       </c>
     </row>
     <row r="33">
